--- a/biology/Zoologie/Âne_de_la_forêt_de_Thuringe/Âne_de_la_forêt_de_Thuringe.xlsx
+++ b/biology/Zoologie/Âne_de_la_forêt_de_Thuringe/Âne_de_la_forêt_de_Thuringe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%82ne_de_la_for%C3%AAt_de_Thuringe</t>
+          <t>Âne_de_la_forêt_de_Thuringe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'âne de la forêt de Thuringe, nommé Thüringer Waldesel en allemand, est une race d’âne allemande originaire de l'ouest de la Thuringe, de Saxe et de Saxe-Anhalt. Sa robe est généralement gris souris avec une bande cruciale. Des zébrures apparaissent sur les membres et le bout du nez est blanc.
-Les effectifs de la race sont très faibles puisque seulement 15 à 20 animaux seraient représentés. Le Wildpark Hundshaupten à Egloffstein et le Thüringer Zoopark à Erfurt possèdent quelques spécimens[1],[2],[3].
-Néanmoins le terme de race n'est pas encore reconnu. L'âne de la forêt de Thuringe pourrait n'être qu'une variante de l'âne domestique. Il n'y a en effet aucun registre d'élevage et aucun suivi génétique et généalogique de cet âne. Son élevage n'est pas non plus encouragé[1],[4].
+Les effectifs de la race sont très faibles puisque seulement 15 à 20 animaux seraient représentés. Le Wildpark Hundshaupten à Egloffstein et le Thüringer Zoopark à Erfurt possèdent quelques spécimens.
+Néanmoins le terme de race n'est pas encore reconnu. L'âne de la forêt de Thuringe pourrait n'être qu'une variante de l'âne domestique. Il n'y a en effet aucun registre d'élevage et aucun suivi génétique et généalogique de cet âne. Son élevage n'est pas non plus encouragé,.
 </t>
         </is>
       </c>
